--- a/spf/registrar-nfs/config.xlsx
+++ b/spf/registrar-nfs/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
     <t>Text</t>
   </si>
   <si>
-    <t>siafi_titulo</t>
-  </si>
-  <si>
-    <t>Mint0213:1</t>
-  </si>
-  <si>
     <t>Flow FolderPath</t>
+  </si>
+  <si>
+    <t>url_planilha_dcf</t>
+  </si>
+  <si>
+    <t>https://cecad365.sharepoint.com/:x:/r/sites/DCFSEPLAG/Documentos%20Compartilhados/General/CONTROLE%20DCF%202024.xlsx?d=w6730e9c17e2b4050af56f21f4051b095&amp;csf=1&amp;web=1&amp;e=RsdQlW</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -392,10 +392,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
